--- a/src/data/Talent.xlsx
+++ b/src/data/Talent.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25019"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{95110E38-5119-4249-BCE9-CDA77C929761}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\00000S22-CIObrain\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71223A87-75E9-4559-91F1-92595CCCBD56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="252" yWindow="2256" windowWidth="20868" windowHeight="7824" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,97 +31,171 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="44">
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Short Type</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Infrastructure Connections</t>
+  </si>
+  <si>
+    <t>Data Connections</t>
+  </si>
+  <si>
+    <t>Application Connections</t>
+  </si>
+  <si>
+    <t>Vendor</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>D-1</t>
+  </si>
+  <si>
+    <t>D-1;D-2;D-3</t>
+  </si>
+  <si>
+    <t>A-3</t>
+  </si>
+  <si>
+    <t>I-1</t>
+  </si>
   <si>
     <t>Talent ID</t>
   </si>
   <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Short Type</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Infrastructure Connections</t>
-  </si>
-  <si>
-    <t>Data Connections</t>
-  </si>
-  <si>
-    <t>Application Connections</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Type </t>
-  </si>
-  <si>
-    <t>Owner</t>
-  </si>
-  <si>
-    <t>Vendor</t>
-  </si>
-  <si>
-    <t>Language</t>
-  </si>
-  <si>
-    <t>Software</t>
-  </si>
-  <si>
-    <t>Business Function</t>
-  </si>
-  <si>
-    <t>Comment</t>
-  </si>
-  <si>
-    <t>core</t>
-  </si>
-  <si>
-    <t>People</t>
-  </si>
-  <si>
-    <t>Lynne Apple</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>D-1</t>
-  </si>
-  <si>
-    <t>Bill August</t>
-  </si>
-  <si>
-    <t>D-1;D-2;D-3</t>
-  </si>
-  <si>
-    <t>Jack Able</t>
-  </si>
-  <si>
-    <t>A-3</t>
-  </si>
-  <si>
-    <t>George Itto</t>
-  </si>
-  <si>
-    <t>I-1</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>other</t>
+    <t>Lynne D. Tpple</t>
+  </si>
+  <si>
+    <t>Bill D. Tugust</t>
+  </si>
+  <si>
+    <t>Jack A. Tble</t>
+  </si>
+  <si>
+    <t>George I. Ttto</t>
+  </si>
+  <si>
+    <t>Will DaveTable</t>
+  </si>
+  <si>
+    <t>Jack A. Trouble</t>
+  </si>
+  <si>
+    <t>Tom A Tall</t>
+  </si>
+  <si>
+    <t>Everal A Tompson</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Vendor Name</t>
+  </si>
+  <si>
+    <t>Percent</t>
+  </si>
+  <si>
+    <t>Cost Center</t>
+  </si>
+  <si>
+    <t>Data Analyst</t>
+  </si>
+  <si>
+    <t>DBA  Senior</t>
+  </si>
+  <si>
+    <t>Developer</t>
+  </si>
+  <si>
+    <t>DBA Entry</t>
+  </si>
+  <si>
+    <t>FCG</t>
+  </si>
+  <si>
+    <t>Employee FTE</t>
+  </si>
+  <si>
+    <t>Department</t>
+  </si>
+  <si>
+    <t>AWD</t>
+  </si>
+  <si>
+    <t>Group Insurance</t>
+  </si>
+  <si>
+    <t>Group Life</t>
+  </si>
+  <si>
+    <t>Business Systems</t>
+  </si>
+  <si>
+    <t>A-1;A-3</t>
+  </si>
+  <si>
+    <t>OPS Management</t>
+  </si>
+  <si>
+    <t>m-160</t>
+  </si>
+  <si>
+    <t>Network Engineer</t>
+  </si>
+  <si>
+    <t>Architect</t>
+  </si>
+  <si>
+    <t>Software Engineer</t>
+  </si>
+  <si>
+    <t>FTE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFC000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFC000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -142,9 +221,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -459,178 +541,344 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N9"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" customWidth="1"/>
-    <col min="4" max="4" width="18.5703125" customWidth="1"/>
-    <col min="5" max="5" width="26" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" customWidth="1"/>
-    <col min="7" max="7" width="22" customWidth="1"/>
+    <col min="1" max="1" width="8.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" customWidth="1"/>
+    <col min="3" max="3" width="9.5546875" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" customWidth="1"/>
+    <col min="5" max="5" width="22.33203125" customWidth="1"/>
+    <col min="6" max="6" width="15.88671875" customWidth="1"/>
+    <col min="7" max="7" width="20.33203125" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" customWidth="1"/>
     <col min="9" max="9" width="15" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" customWidth="1"/>
-    <col min="12" max="12" width="10.5703125" customWidth="1"/>
-    <col min="13" max="13" width="18.5703125" customWidth="1"/>
+    <col min="10" max="10" width="14.44140625" customWidth="1"/>
+    <col min="12" max="12" width="10.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
-      <c r="A1" t="s">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3">
+        <v>1</v>
+      </c>
+      <c r="L2" s="3">
+        <v>344</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="C3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" s="3">
+        <v>1</v>
+      </c>
+      <c r="L3" s="3">
+        <v>344</v>
+      </c>
+      <c r="M3" s="3"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="L4" s="3">
+        <v>541</v>
+      </c>
+      <c r="M4" s="3"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K5" s="3">
+        <v>1</v>
+      </c>
+      <c r="L5" s="3">
+        <v>360</v>
+      </c>
+      <c r="M5" s="3"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3">
+        <v>1</v>
+      </c>
+      <c r="L6" s="3">
+        <v>112</v>
+      </c>
+      <c r="M6" s="3"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3">
+        <v>1</v>
+      </c>
+      <c r="L7" s="3">
+        <v>112</v>
+      </c>
+      <c r="M7" s="3"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="B8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3">
+        <v>1</v>
+      </c>
+      <c r="L8" s="3">
+        <v>904</v>
+      </c>
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
+      <c r="B9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2">
+      <c r="H9" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>26</v>
-      </c>
+      <c r="L9" s="3">
+        <v>774</v>
+      </c>
+      <c r="M9" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>